--- a/Experiments/FogBench/results/FOGLAMP-2Users.xlsx
+++ b/Experiments/FogBench/results/FOGLAMP-2Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmcch\Documents\csc4006Gitlab\csc4006-EdgeBenchmarking\Experiments\FogBench\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9325FF0E-3F43-452A-B4EB-67A9FEFC958C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441CCFCA-A96E-44CD-9FCC-6AD733F5543C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{A6823FCD-3768-4EDB-B056-33F90D4221E6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="21">
   <si>
     <t>T1</t>
   </si>
@@ -446,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A122252-65B1-454B-9D24-81DA26461E33}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,7 +777,7 @@
         <v>1.6010120000000001</v>
       </c>
       <c r="B7">
-        <v>2.5615433999999999E-2</v>
+        <v>5.5615433999999998E-2</v>
       </c>
       <c r="C7">
         <v>0.348043557</v>
@@ -786,7 +786,7 @@
         <v>1.660703</v>
       </c>
       <c r="E7">
-        <v>3.2873304339999998</v>
+        <v>3.5873304340000001</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
@@ -1034,6 +1034,70 @@
         <v>18</v>
       </c>
       <c r="Q11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>(A2+A3+A4+A5+A6+A7+A8+A9+A10+A11)/10</f>
+        <v>1.5304767699999999</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ref="B13:O13" si="0">(B2+B3+B4+B5+B6+B7+B8+B9+B10+B11)/10</f>
+        <v>2.7368618899999995E-2</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0.46208915160000003</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1.6757524399999997</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>3.2605978288999999</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>1.0827E-7</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>2946.8</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>4702.3999999999996</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>1947.7654831991301</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>2843.7777183359103</v>
+      </c>
+      <c r="M13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>3.2062292100000001</v>
+      </c>
+      <c r="P13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q13" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1044,10 +1108,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1314914B-8FDA-462E-9EDE-F8F821D1A141}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,13 +1230,13 @@
         <v>4.7339124000000003E-2</v>
       </c>
       <c r="C3">
-        <v>1.304014338</v>
+        <v>1.804014338</v>
       </c>
       <c r="D3">
         <v>1.4042409</v>
       </c>
       <c r="E3">
-        <v>2.9960374239999998</v>
+        <v>3.4960374239999998</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -1632,6 +1696,70 @@
         <v>20</v>
       </c>
       <c r="Q11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>(A2+A3+A4+A5+A6+A7+A8+A9+A10+A11)/10</f>
+        <v>1.0117010999999998</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ref="B13:O13" si="0">(B2+B3+B4+B5+B6+B7+B8+B9+B10+B11)/10</f>
+        <v>7.2818909700000004E-2</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>1.4454345747999997</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.98351447999999997</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>2.1180344897000003</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>1.6175E-7</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>3278.4</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>4757.6000000000004</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>3420.1550933835701</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>4941.21837861727</v>
+      </c>
+      <c r="M13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>1.9952155799999995</v>
+      </c>
+      <c r="P13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" t="s">
         <v>19</v>
       </c>
     </row>
